--- a/2025 Maps/2025 Stage Menus.xlsx
+++ b/2025 Maps/2025 Stage Menus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyleaune/Documents/R_projects/Tour_de_Vin/2025 Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C3355-C970-EE40-BF02-EB1E1FED9446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82367E-DF07-F74C-9FC1-48D8CD22FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="18960" windowHeight="19520" xr2:uid="{91F2A52E-6C6A-DE46-BBE8-2EEEB78D9463}"/>
+    <workbookView xWindow="38460" yWindow="1920" windowWidth="38400" windowHeight="19820" xr2:uid="{91F2A52E-6C6A-DE46-BBE8-2EEEB78D9463}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Stage</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Jurançon</t>
   </si>
   <si>
-    <t>Béarn</t>
-  </si>
-  <si>
     <t>Châteauneuf-du-Pape</t>
   </si>
   <si>
@@ -98,18 +95,12 @@
     <t>Languedoc-Roussillon</t>
   </si>
   <si>
-    <t>Steak frite with Bearnaise</t>
-  </si>
-  <si>
     <t>https://www.finewineandgoodspirits.com/lionel-osmin-and-cie-villa-la-vie-en-rose-negrette-vin-de-france-rose/product/100026405</t>
   </si>
   <si>
     <t>https://www.finewineandgoodspirits.com/barton-and-guestier-rose-danjou/product/000001601</t>
   </si>
   <si>
-    <t>https://www.finewineandgoodspirits.com/vignoble-dubreuil-silice-sauvignon-blanc-touraine-2023/product/100044112</t>
-  </si>
-  <si>
     <t>https://www.finewineandgoodspirits.com/clos-cuirouilh-jurancon-sec-2018/product/000087301</t>
   </si>
   <si>
@@ -128,24 +119,15 @@
     <t>https://www.finewineandgoodspirits.com/domaine-des-carlines-en-lya-chardonnay-cotes-du-jura-2018/product/000087072</t>
   </si>
   <si>
-    <t>https://www.finewineandgoodspirits.com/chateau-pesquie-edition-1912m-ventoux-rouge-2020/product/000086106</t>
-  </si>
-  <si>
     <t>Wine #1</t>
   </si>
   <si>
-    <t>Wine #2</t>
-  </si>
-  <si>
     <t>Mushroom and white bean cassoulet</t>
   </si>
   <si>
     <t>Trout Amandine</t>
   </si>
   <si>
-    <t>https://www.finewineandgoodspirits.com/chateau-bouscasse-madiran-2018/product/100030742</t>
-  </si>
-  <si>
     <t>Ratatouille</t>
   </si>
   <si>
@@ -162,13 +144,82 @@
   </si>
   <si>
     <t>Cotes du Jura</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Pickup only</t>
+  </si>
+  <si>
+    <t>https://www.finewineandgoodspirits.com/veuve-clicquot-yellow-label-champagne-brut/product/000006924</t>
+  </si>
+  <si>
+    <t>https://www.finewineandgoodspirits.com/domaine-du-vieil-orme-touraine-sauvignon-blanc-2023/product/100039123</t>
+  </si>
+  <si>
+    <t>Cahors</t>
+  </si>
+  <si>
+    <t>Puy Lentil Salad with Warm Goat Cheese Toast</t>
+  </si>
+  <si>
+    <t>Already have</t>
+  </si>
+  <si>
+    <t>To buy</t>
+  </si>
+  <si>
+    <t>https://www.finewineandgoodspirits.com/chateau-lamartine-cuvee-particuliere-cahors-2020/product/100038779</t>
+  </si>
+  <si>
+    <t>Tourte Landaise aux Légumes OR Vegetable timbale with Béarnaise Sauce</t>
+  </si>
+  <si>
+    <t>Croutade des Blettes</t>
+  </si>
+  <si>
+    <t>Anjou Rosé</t>
+  </si>
+  <si>
+    <t>Touraine Sauvignon Blanc</t>
+  </si>
+  <si>
+    <t>Morgon Beaujolais</t>
+  </si>
+  <si>
+    <t>Fronton Rosé</t>
+  </si>
+  <si>
+    <t>Cahors Malbec</t>
+  </si>
+  <si>
+    <t>Gascogne Gros Manseng</t>
+  </si>
+  <si>
+    <t>Langedoc-Roussillon Red Blend</t>
+  </si>
+  <si>
+    <t>Côtes du Rhône Red Blend</t>
+  </si>
+  <si>
+    <t>Savoie Red Blend</t>
+  </si>
+  <si>
+    <t>Côtes du Jura Chardonnay</t>
+  </si>
+  <si>
+    <t>Wine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +233,12 @@
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,10 +263,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,19 +603,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EADB5C-4B4E-4D4E-8CCF-23A1D2CFDC1C}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,22 +627,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,7 +654,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -607,7 +666,7 @@
         <v>Sunday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -619,7 +678,7 @@
         <v>Monday</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -631,7 +690,7 @@
         <v>Tuesday</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -643,7 +702,7 @@
         <v>Wednesday</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -655,7 +714,7 @@
         <v>Thursday</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -666,8 +725,14 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -682,16 +747,25 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -706,16 +780,25 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -727,16 +810,25 @@
         <v>Monday</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -751,13 +843,25 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -772,10 +876,13 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -787,19 +894,28 @@
         <v>Friday</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -814,16 +930,25 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -835,19 +960,28 @@
         <v>Sunday</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -859,22 +993,28 @@
         <v>Tuesday</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -886,16 +1026,28 @@
         <v>Wednesday</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -906,20 +1058,11 @@
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -930,8 +1073,29 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -943,16 +1107,25 @@
         <v>Saturday</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -964,12 +1137,32 @@
         <v>Sunday</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" xr:uid="{1CBBAD06-0D33-CF45-A326-9A982D17F4A1}"/>
+    <hyperlink ref="H20" r:id="rId1" xr:uid="{1CBBAD06-0D33-CF45-A326-9A982D17F4A1}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{7DBCD312-B6E8-B745-B247-A302B49BBDF5}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{95BB8BE7-F58B-1E40-9D16-8223A56A7621}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{6E7FD183-0C12-474D-8605-89C9D09355CB}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{44B9D422-DC83-3340-AB6D-D84325311874}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{095BE751-D99A-2743-A743-2ED0C27433FF}"/>
+    <hyperlink ref="H18" r:id="rId7" xr:uid="{08508A0A-B436-434E-842F-33FD39D3FD6C}"/>
+    <hyperlink ref="H21" r:id="rId8" xr:uid="{05C19F58-0CC3-894F-A1A6-7D89E08A42E0}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{30F4EC33-C9B2-BA43-ABDA-BD604752CAF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
